--- a/field_data/group_tests/group_tests_log.xlsx
+++ b/field_data/group_tests/group_tests_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyson/Documents/academia/institutions/WUR/courses/WIAS/WIAS_AnimalTracking/field_data/group_tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyson/Documents/git/WIAS_tracking_course/field_data/group_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89709287-5A1E-0A4C-89A8-F983405DF597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7609AC00-EBC9-EC49-A8DE-7089A76E01C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10560" yWindow="820" windowWidth="18580" windowHeight="17440" xr2:uid="{EBBA8FBD-BE68-4545-BE67-69B30C25E76D}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
